--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220511_103008.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220511_103008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="262">
   <si>
     <t>날짜</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
+  </si>
+  <si>
+    <t>D-Nation</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -1209,7 +1212,7 @@
         <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1235,7 +1238,7 @@
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1261,7 +1264,7 @@
         <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1313,7 +1316,7 @@
         <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1339,7 +1342,7 @@
         <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1365,7 +1368,7 @@
         <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1391,7 +1394,7 @@
         <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1443,7 +1446,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1469,7 +1472,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1495,7 +1498,7 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1521,7 +1524,7 @@
         <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1547,7 +1550,7 @@
         <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1573,7 +1576,7 @@
         <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1625,7 +1628,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1651,7 +1654,7 @@
         <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1677,7 +1680,7 @@
         <v>222</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1755,7 +1758,7 @@
         <v>222</v>
       </c>
       <c r="H23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1781,7 +1784,7 @@
         <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1807,7 +1810,7 @@
         <v>225</v>
       </c>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1833,7 +1836,7 @@
         <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1885,7 +1888,7 @@
         <v>235</v>
       </c>
       <c r="H28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1911,7 +1914,7 @@
         <v>236</v>
       </c>
       <c r="H29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1937,7 +1940,7 @@
         <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1963,7 +1966,7 @@
         <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1989,7 +1992,7 @@
         <v>237</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2015,7 +2018,7 @@
         <v>238</v>
       </c>
       <c r="H33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2067,7 +2070,7 @@
         <v>239</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2093,7 +2096,7 @@
         <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2119,7 +2122,7 @@
         <v>222</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2145,7 +2148,7 @@
         <v>222</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2171,7 +2174,7 @@
         <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2197,7 +2200,7 @@
         <v>240</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2223,7 +2226,7 @@
         <v>241</v>
       </c>
       <c r="H41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2275,7 +2278,7 @@
         <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2327,7 +2330,7 @@
         <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2353,7 +2356,7 @@
         <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2379,7 +2382,7 @@
         <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2405,7 +2408,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2431,7 +2434,7 @@
         <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2457,7 +2460,7 @@
         <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2483,7 +2486,7 @@
         <v>235</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2509,7 +2512,7 @@
         <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2535,7 +2538,7 @@
         <v>234</v>
       </c>
       <c r="H53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2561,7 +2564,7 @@
         <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2587,7 +2590,7 @@
         <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2639,7 +2642,7 @@
         <v>249</v>
       </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2665,7 +2668,7 @@
         <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2717,7 +2720,7 @@
         <v>222</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2743,7 +2746,7 @@
         <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2769,7 +2772,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2795,7 +2798,7 @@
         <v>228</v>
       </c>
       <c r="H63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2899,7 +2902,7 @@
         <v>228</v>
       </c>
       <c r="H67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2925,7 +2928,7 @@
         <v>222</v>
       </c>
       <c r="H68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2951,7 +2954,7 @@
         <v>228</v>
       </c>
       <c r="H69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2977,7 +2980,7 @@
         <v>222</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3003,7 +3006,7 @@
         <v>234</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3029,7 +3032,7 @@
         <v>235</v>
       </c>
       <c r="H72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3055,7 +3058,7 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3081,7 +3084,7 @@
         <v>250</v>
       </c>
       <c r="H74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3107,7 +3110,7 @@
         <v>239</v>
       </c>
       <c r="H75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3129,6 +3132,12 @@
       <c r="F76" t="s">
         <v>208</v>
       </c>
+      <c r="G76" t="s">
+        <v>251</v>
+      </c>
+      <c r="H76" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
@@ -3150,10 +3159,10 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3228,10 +3237,10 @@
         <v>210</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3257,7 +3266,7 @@
         <v>222</v>
       </c>
       <c r="H81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3309,7 +3318,7 @@
         <v>228</v>
       </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3332,10 +3341,10 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3358,10 +3367,10 @@
         <v>213</v>
       </c>
       <c r="G85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3413,7 +3422,7 @@
         <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3439,7 +3448,7 @@
         <v>228</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3465,7 +3474,7 @@
         <v>228</v>
       </c>
       <c r="H89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3491,7 +3500,7 @@
         <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3514,10 +3523,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3569,7 +3578,7 @@
         <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3592,10 +3601,10 @@
         <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3644,10 +3653,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3670,10 +3679,10 @@
         <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3696,10 +3705,10 @@
         <v>219</v>
       </c>
       <c r="G98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3722,10 +3731,10 @@
         <v>220</v>
       </c>
       <c r="G99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3751,7 +3760,7 @@
         <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3777,7 +3786,7 @@
         <v>235</v>
       </c>
       <c r="H101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220511_103008.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220511_103008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="261">
   <si>
     <t>날짜</t>
   </si>
@@ -718,7 +718,7 @@
     <t>매직스트로베리 사운드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -797,9 +797,6 @@
   </si>
   <si>
     <t>Jellyfish</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1209,7 @@
         <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1238,7 +1235,7 @@
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1264,7 +1261,7 @@
         <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1316,7 +1313,7 @@
         <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1342,7 +1339,7 @@
         <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1368,7 +1365,7 @@
         <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1394,7 +1391,7 @@
         <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1446,7 +1443,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1472,7 +1469,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1498,7 +1495,7 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1524,7 +1521,7 @@
         <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1550,7 +1547,7 @@
         <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1576,7 +1573,7 @@
         <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1628,7 +1625,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1654,7 +1651,7 @@
         <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1680,7 +1677,7 @@
         <v>222</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1758,7 +1755,7 @@
         <v>222</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1784,7 +1781,7 @@
         <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1810,7 +1807,7 @@
         <v>225</v>
       </c>
       <c r="H25" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1836,7 +1833,7 @@
         <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1888,7 +1885,7 @@
         <v>235</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1914,7 +1911,7 @@
         <v>236</v>
       </c>
       <c r="H29" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1940,7 +1937,7 @@
         <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1966,7 +1963,7 @@
         <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1992,7 +1989,7 @@
         <v>237</v>
       </c>
       <c r="H32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2018,7 +2015,7 @@
         <v>238</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2070,7 +2067,7 @@
         <v>239</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2096,7 +2093,7 @@
         <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2122,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="H37" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2148,7 +2145,7 @@
         <v>222</v>
       </c>
       <c r="H38" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2174,7 +2171,7 @@
         <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2200,7 +2197,7 @@
         <v>240</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2226,7 +2223,7 @@
         <v>241</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2278,7 +2275,7 @@
         <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2330,7 +2327,7 @@
         <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2356,7 +2353,7 @@
         <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2382,7 +2379,7 @@
         <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2408,7 +2405,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2434,7 +2431,7 @@
         <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2460,7 +2457,7 @@
         <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2486,7 +2483,7 @@
         <v>235</v>
       </c>
       <c r="H51" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2512,7 +2509,7 @@
         <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2538,7 +2535,7 @@
         <v>234</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2564,7 +2561,7 @@
         <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2590,7 +2587,7 @@
         <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2642,7 +2639,7 @@
         <v>249</v>
       </c>
       <c r="H57" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2668,7 +2665,7 @@
         <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2720,7 +2717,7 @@
         <v>222</v>
       </c>
       <c r="H60" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2746,7 +2743,7 @@
         <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2772,7 +2769,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2798,7 +2795,7 @@
         <v>228</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2902,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="H67" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2928,7 +2925,7 @@
         <v>222</v>
       </c>
       <c r="H68" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2954,7 +2951,7 @@
         <v>228</v>
       </c>
       <c r="H69" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2980,7 +2977,7 @@
         <v>222</v>
       </c>
       <c r="H70" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3006,7 +3003,7 @@
         <v>234</v>
       </c>
       <c r="H71" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3032,7 +3029,7 @@
         <v>235</v>
       </c>
       <c r="H72" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3058,7 +3055,7 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3084,7 +3081,7 @@
         <v>250</v>
       </c>
       <c r="H74" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3110,7 +3107,7 @@
         <v>239</v>
       </c>
       <c r="H75" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3136,7 +3133,7 @@
         <v>251</v>
       </c>
       <c r="H76" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3162,7 +3159,7 @@
         <v>252</v>
       </c>
       <c r="H77" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3240,7 +3237,7 @@
         <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3266,7 +3263,7 @@
         <v>222</v>
       </c>
       <c r="H81" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3318,7 +3315,7 @@
         <v>228</v>
       </c>
       <c r="H83" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3344,7 +3341,7 @@
         <v>254</v>
       </c>
       <c r="H84" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3370,7 +3367,7 @@
         <v>255</v>
       </c>
       <c r="H85" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3422,7 +3419,7 @@
         <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3448,7 +3445,7 @@
         <v>228</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3474,7 +3471,7 @@
         <v>228</v>
       </c>
       <c r="H89" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3500,7 +3497,7 @@
         <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3526,7 +3523,7 @@
         <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3578,7 +3575,7 @@
         <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3604,7 +3601,7 @@
         <v>256</v>
       </c>
       <c r="H94" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3656,7 +3653,7 @@
         <v>257</v>
       </c>
       <c r="H96" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3682,7 +3679,7 @@
         <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3708,7 +3705,7 @@
         <v>259</v>
       </c>
       <c r="H98" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3734,7 +3731,7 @@
         <v>260</v>
       </c>
       <c r="H99" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3760,7 +3757,7 @@
         <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3786,7 +3783,7 @@
         <v>235</v>
       </c>
       <c r="H101" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
